--- a/src/main/resources/CompilerDictionary/LocatorDictionary/Registeradeal Page Locators.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/Registeradeal Page Locators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\IdeaProjects\CouchBase\src\main\resources\CompilerDictionary\LocatorDictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/Mobile-Web-Automation/src/main/resources/CompilerDictionary/LocatorDictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59B0ADE-5664-4769-B997-15CF8F945E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713B4258-7D34-8745-8102-F6014912C1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FFA0701B-EC26-4A5B-ABD1-CDCC0E08A849}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{FFA0701B-EC26-4A5B-ABD1-CDCC0E08A849}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
   <si>
     <t>Sno</t>
   </si>
@@ -438,13 +438,22 @@
   </si>
   <si>
     <t>div#ValidMsgDR_Prospect_Use_Case__c</t>
+  </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Xpath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +466,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -480,10 +496,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,21 +835,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE33D57-A82B-4B25-8C84-927A14AE382C}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="85.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.7265625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="85.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,8 +860,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>84</v>
       </c>
@@ -853,8 +874,11 @@
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -864,8 +888,11 @@
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>86</v>
       </c>
@@ -875,8 +902,11 @@
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>87</v>
       </c>
@@ -886,8 +916,11 @@
       <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>88</v>
       </c>
@@ -897,8 +930,11 @@
       <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>89</v>
       </c>
@@ -908,8 +944,11 @@
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>90</v>
       </c>
@@ -919,8 +958,11 @@
       <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>91</v>
       </c>
@@ -930,8 +972,11 @@
       <c r="C9" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -941,8 +986,11 @@
       <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>93</v>
       </c>
@@ -952,8 +1000,11 @@
       <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>94</v>
       </c>
@@ -963,8 +1014,11 @@
       <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>95</v>
       </c>
@@ -974,8 +1028,11 @@
       <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>96</v>
       </c>
@@ -985,8 +1042,11 @@
       <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>97</v>
       </c>
@@ -996,8 +1056,11 @@
       <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>98</v>
       </c>
@@ -1007,8 +1070,11 @@
       <c r="C16" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>99</v>
       </c>
@@ -1018,8 +1084,11 @@
       <c r="C17" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
@@ -1029,8 +1098,11 @@
       <c r="C18" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>101</v>
       </c>
@@ -1040,8 +1112,11 @@
       <c r="C19" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>102</v>
       </c>
@@ -1051,8 +1126,11 @@
       <c r="C20" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>103</v>
       </c>
@@ -1062,8 +1140,11 @@
       <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>104</v>
       </c>
@@ -1073,8 +1154,11 @@
       <c r="C22" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>105</v>
       </c>
@@ -1084,8 +1168,11 @@
       <c r="C23" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>106</v>
       </c>
@@ -1095,8 +1182,11 @@
       <c r="C24" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>107</v>
       </c>
@@ -1106,8 +1196,11 @@
       <c r="C25" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>108</v>
       </c>
@@ -1117,8 +1210,11 @@
       <c r="C26" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>109</v>
       </c>
@@ -1128,8 +1224,11 @@
       <c r="C27" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>110</v>
       </c>
@@ -1139,8 +1238,11 @@
       <c r="C28" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>111</v>
       </c>
@@ -1150,8 +1252,11 @@
       <c r="C29" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>112</v>
       </c>
@@ -1161,8 +1266,11 @@
       <c r="C30" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>113</v>
       </c>
@@ -1172,8 +1280,11 @@
       <c r="C31" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>114</v>
       </c>
@@ -1183,16 +1294,22 @@
       <c r="C32" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>115</v>
       </c>
@@ -1202,8 +1319,11 @@
       <c r="C34" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -1213,8 +1333,11 @@
       <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>117</v>
       </c>
@@ -1224,8 +1347,11 @@
       <c r="C36" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>118</v>
       </c>
@@ -1235,8 +1361,11 @@
       <c r="C37" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>119</v>
       </c>
@@ -1246,8 +1375,11 @@
       <c r="C38" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>120</v>
       </c>
@@ -1257,8 +1389,11 @@
       <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
@@ -1268,8 +1403,11 @@
       <c r="C40" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>122</v>
       </c>
@@ -1279,8 +1417,11 @@
       <c r="C41" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>123</v>
       </c>
@@ -1290,8 +1431,11 @@
       <c r="C42" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>124</v>
       </c>
@@ -1301,8 +1445,11 @@
       <c r="C43" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>127</v>
       </c>
@@ -1312,8 +1459,11 @@
       <c r="C44" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
@@ -1322,6 +1472,9 @@
       </c>
       <c r="C45" s="2" t="s">
         <v>125</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
